--- a/data/last/Refined data_RR_MH_20230608_version 5.3.1.xlsx
+++ b/data/last/Refined data_RR_MH_20230608_version 5.3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mira_DSS\Mira_app\data\last\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/kahyen_yeak_wur_nl/Documents/Alberto G_Mira Risk ranking/2024 Mira_app-main_0416_V5.2/Mira_app-main/data/last/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F236EF-4BC5-474D-9C4D-17897CD8CA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{82F236EF-4BC5-474D-9C4D-17897CD8CA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BEF20BE-010A-4A4E-A7B2-6408D2EC2742}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_properties" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12971" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12971" uniqueCount="395">
   <si>
     <t>Food_item</t>
   </si>
@@ -1402,9 +1402,6 @@
     <t>processed cheese and spreads A031A L4</t>
   </si>
   <si>
-    <t>ready to eat cereal based meal for children A03RE L3</t>
-  </si>
-  <si>
     <t>ready to eat dairy based meal for children A03RH L3</t>
   </si>
   <si>
@@ -1934,6 +1931,21 @@
   </si>
   <si>
     <t>low fat</t>
+  </si>
+  <si>
+    <t>cereals with an added high protein food reconstituted A0BZF L3 FoNAO</t>
+  </si>
+  <si>
+    <t>cereals with an added high protein food which have to be reconstituted with water or other protein free liquid A03QZ L3 FoNAO</t>
+  </si>
+  <si>
+    <t>ready to eat cereal based meal for children A03RE L3 FoNAO</t>
+  </si>
+  <si>
+    <t>simple cereals for infants or children reconstituted A0BZE L3 FoNAO</t>
+  </si>
+  <si>
+    <t>simple cereals which have to be reconstituted with milk or other appropriate nutritious liquids A03QY L3 FoNAO</t>
   </si>
 </sst>
 </file>
@@ -2524,9 +2536,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2564,7 +2576,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2670,7 +2682,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2812,7 +2824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2826,14 +2838,14 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="101.36328125" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.08984375" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.36328125" style="69" customWidth="1"/>
     <col min="5" max="5" width="26.36328125" style="4" customWidth="1"/>
     <col min="6" max="6" width="36.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
@@ -2890,10 +2902,10 @@
         <v>238</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>240</v>
@@ -2919,13 +2931,13 @@
         <v>238</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -2948,7 +2960,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>241</v>
@@ -2977,7 +2989,7 @@
         <v>236</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>241</v>
@@ -2987,8 +2999,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="69" t="s">
-        <v>281</v>
+      <c r="A6" s="37" t="s">
+        <v>390</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -2996,8 +3008,8 @@
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="69" t="s">
-        <v>281</v>
+      <c r="D6" s="37" t="s">
+        <v>390</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>16</v>
@@ -3006,13 +3018,13 @@
         <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -3035,18 +3047,18 @@
         <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H7" t="s">
+        <v>388</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>390</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
-        <v>282</v>
+      <c r="A8" s="37" t="s">
+        <v>391</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
@@ -3054,8 +3066,8 @@
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="69" t="s">
-        <v>282</v>
+      <c r="D8" s="37" t="s">
+        <v>391</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
@@ -3064,13 +3076,13 @@
         <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -3093,13 +3105,13 @@
         <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H9" t="s">
+        <v>388</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -3122,7 +3134,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>241</v>
@@ -3151,7 +3163,7 @@
         <v>236</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>242</v>
@@ -3180,13 +3192,13 @@
         <v>238</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -3209,13 +3221,13 @@
         <v>236</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -3238,13 +3250,13 @@
         <v>236</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -3267,13 +3279,13 @@
         <v>236</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -3296,13 +3308,13 @@
         <v>236</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -3325,13 +3337,13 @@
         <v>29</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -3354,13 +3366,13 @@
         <v>29</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -3383,13 +3395,13 @@
         <v>236</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -3412,13 +3424,13 @@
         <v>236</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -3441,13 +3453,13 @@
         <v>236</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -3470,7 +3482,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>241</v>
@@ -3499,13 +3511,13 @@
         <v>238</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H23" t="s">
+        <v>388</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -3534,7 +3546,7 @@
         <v>241</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -3563,7 +3575,7 @@
         <v>241</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -3586,13 +3598,13 @@
         <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -3615,13 +3627,13 @@
         <v>238</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H27" t="s">
+        <v>388</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -3644,13 +3656,13 @@
         <v>43</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -3673,13 +3685,13 @@
         <v>43</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -3702,13 +3714,13 @@
         <v>236</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -3731,13 +3743,13 @@
         <v>236</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -3760,13 +3772,13 @@
         <v>236</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -3789,13 +3801,13 @@
         <v>236</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -3818,13 +3830,13 @@
         <v>236</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -3847,13 +3859,13 @@
         <v>51</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -3876,13 +3888,13 @@
         <v>51</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -3905,13 +3917,13 @@
         <v>236</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -3934,13 +3946,13 @@
         <v>236</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -3963,13 +3975,13 @@
         <v>236</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -3992,13 +4004,13 @@
         <v>238</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -4021,13 +4033,13 @@
         <v>238</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H41" t="s">
+        <v>388</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -4050,13 +4062,13 @@
         <v>17</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -4079,13 +4091,13 @@
         <v>238</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -4108,18 +4120,18 @@
         <v>13</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H44" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="69" t="s">
-        <v>318</v>
+      <c r="A45" s="37" t="s">
+        <v>392</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>61</v>
@@ -4127,8 +4139,8 @@
       <c r="C45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="69" t="s">
-        <v>318</v>
+      <c r="D45" s="37" t="s">
+        <v>392</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>16</v>
@@ -4137,18 +4149,18 @@
         <v>17</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="69" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>62</v>
@@ -4157,7 +4169,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="69" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>12</v>
@@ -4166,7 +4178,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>241</v>
@@ -4177,7 +4189,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>63</v>
@@ -4186,7 +4198,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>64</v>
@@ -4195,18 +4207,18 @@
         <v>238</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>65</v>
@@ -4215,7 +4227,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>16</v>
@@ -4230,12 +4242,12 @@
         <v>241</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>66</v>
@@ -4244,7 +4256,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>67</v>
@@ -4253,18 +4265,18 @@
         <v>238</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="69" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>68</v>
@@ -4273,24 +4285,24 @@
         <v>6</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E50" s="40" t="s">
         <v>237</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>69</v>
@@ -4299,7 +4311,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>16</v>
@@ -4308,18 +4320,18 @@
         <v>38</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>70</v>
@@ -4328,7 +4340,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>12</v>
@@ -4337,7 +4349,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>241</v>
@@ -4347,8 +4359,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="69" t="s">
-        <v>326</v>
+      <c r="A53" s="37" t="s">
+        <v>393</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>71</v>
@@ -4356,8 +4368,8 @@
       <c r="C53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="69" t="s">
-        <v>326</v>
+      <c r="D53" s="37" t="s">
+        <v>393</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>16</v>
@@ -4366,18 +4378,18 @@
         <v>17</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>71</v>
@@ -4386,7 +4398,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>12</v>
@@ -4395,18 +4407,18 @@
         <v>17</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H54" t="s">
+        <v>388</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>390</v>
-      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="69" t="s">
-        <v>327</v>
+      <c r="A55" s="37" t="s">
+        <v>394</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>72</v>
@@ -4414,8 +4426,8 @@
       <c r="C55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="69" t="s">
-        <v>327</v>
+      <c r="D55" s="37" t="s">
+        <v>394</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>16</v>
@@ -4424,18 +4436,18 @@
         <v>17</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>242</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>72</v>
@@ -4444,7 +4456,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>12</v>
@@ -4453,18 +4465,18 @@
         <v>17</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H56" t="s">
+        <v>388</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>73</v>
@@ -4473,24 +4485,24 @@
         <v>6</v>
       </c>
       <c r="D57" s="69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E57" s="40" t="s">
         <v>237</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="69" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>74</v>
@@ -4499,7 +4511,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="69" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>10</v>
@@ -4508,13 +4520,13 @@
         <v>238</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>241</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -4537,9 +4549,9 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4775,7 +4787,7 @@
         <v>238</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>74</v>
@@ -4799,7 +4811,7 @@
         <v>238</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>63</v>
@@ -4823,7 +4835,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>281</v>
+        <v>390</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>15</v>
@@ -4847,7 +4859,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>282</v>
+        <v>391</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>18</v>
@@ -4895,7 +4907,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>61</v>
@@ -4919,7 +4931,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>71</v>
@@ -4943,7 +4955,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>72</v>
@@ -5087,7 +5099,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>65</v>
@@ -5111,7 +5123,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D24" s="37" t="s">
         <v>69</v>
@@ -5231,7 +5243,7 @@
         <v>238</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>66</v>
@@ -5303,7 +5315,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>71</v>
@@ -5327,7 +5339,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>72</v>
@@ -5447,7 +5459,7 @@
         <v>13</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>62</v>
@@ -5471,7 +5483,7 @@
         <v>13</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>70</v>
@@ -5901,7 +5913,7 @@
       </c>
       <c r="B57" s="37"/>
       <c r="C57" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>68</v>
@@ -5923,7 +5935,7 @@
       </c>
       <c r="B58" s="37"/>
       <c r="C58" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>73</v>
@@ -5946,6 +5958,7 @@
       <c r="C67" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0001-0000-0900-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6181,7 +6194,7 @@
         <v>101</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -6219,7 +6232,7 @@
         <v>101</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -7309,7 +7322,7 @@
         <v>101</v>
       </c>
       <c r="E40" s="91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
@@ -7344,7 +7357,7 @@
         <v>101</v>
       </c>
       <c r="E41" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -8436,7 +8449,7 @@
         <v>101</v>
       </c>
       <c r="E74" s="91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -8465,7 +8478,7 @@
         <v>101</v>
       </c>
       <c r="E75" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -9498,7 +9511,7 @@
         <v>101</v>
       </c>
       <c r="E108" s="91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
@@ -9536,7 +9549,7 @@
         <v>101</v>
       </c>
       <c r="E109" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
@@ -10643,7 +10656,7 @@
         <v>101</v>
       </c>
       <c r="E142" s="91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
@@ -10672,7 +10685,7 @@
         <v>101</v>
       </c>
       <c r="E143" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
@@ -11726,7 +11739,7 @@
         <v>101</v>
       </c>
       <c r="E176" s="91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
@@ -11757,7 +11770,7 @@
         <v>101</v>
       </c>
       <c r="E177" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F177" s="12"/>
       <c r="G177" s="12"/>
@@ -12822,7 +12835,7 @@
         <v>101</v>
       </c>
       <c r="E210" s="91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F210" s="12"/>
       <c r="G210" s="12"/>
@@ -12851,7 +12864,7 @@
         <v>101</v>
       </c>
       <c r="E211" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F211" s="12"/>
       <c r="G211" s="12"/>
@@ -13847,7 +13860,7 @@
         <v>101</v>
       </c>
       <c r="E244" s="91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F244" s="12"/>
       <c r="G244" s="12"/>
@@ -13876,7 +13889,7 @@
         <v>101</v>
       </c>
       <c r="E245" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F245" s="12"/>
       <c r="G245" s="12"/>
@@ -14862,7 +14875,7 @@
         <v>101</v>
       </c>
       <c r="E278" s="91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F278" s="12"/>
       <c r="G278" s="12"/>
@@ -14893,7 +14906,7 @@
         <v>101</v>
       </c>
       <c r="E279" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
@@ -15932,7 +15945,7 @@
         <v>101</v>
       </c>
       <c r="E312" s="91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F312" s="12"/>
       <c r="G312" s="12"/>
@@ -15968,7 +15981,7 @@
         <v>101</v>
       </c>
       <c r="E313" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F313" s="12"/>
       <c r="G313" s="12"/>
@@ -17065,7 +17078,7 @@
         <v>101</v>
       </c>
       <c r="E346" s="91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F346" s="12"/>
       <c r="G346" s="12"/>
@@ -17099,7 +17112,7 @@
         <v>101</v>
       </c>
       <c r="E347" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F347" s="12"/>
       <c r="G347" s="12"/>
@@ -18113,7 +18126,7 @@
         <v>101</v>
       </c>
       <c r="E380" s="91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F380" s="12"/>
       <c r="G380" s="12"/>
@@ -18142,7 +18155,7 @@
         <v>101</v>
       </c>
       <c r="E381" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F381" s="12"/>
       <c r="G381" s="12"/>
@@ -19147,7 +19160,7 @@
         <v>101</v>
       </c>
       <c r="E414" s="91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F414" s="12"/>
       <c r="G414" s="12"/>
@@ -19181,7 +19194,7 @@
         <v>101</v>
       </c>
       <c r="E415" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F415" s="12"/>
       <c r="G415" s="12"/>
@@ -20245,7 +20258,7 @@
         <v>101</v>
       </c>
       <c r="E448" s="91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
@@ -20278,7 +20291,7 @@
         <v>101</v>
       </c>
       <c r="E449" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
@@ -36741,7 +36754,7 @@
   </sheetPr>
   <dimension ref="A1:L341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J2" sqref="J2:J341"/>
     </sheetView>
@@ -36941,7 +36954,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D6" s="62" t="s">
         <v>171</v>
@@ -36979,7 +36992,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>171</v>
@@ -37083,7 +37096,7 @@
         <v>106</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D10" s="53" t="s">
         <v>167</v>
@@ -37117,7 +37130,7 @@
         <v>106</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>167</v>
@@ -37215,7 +37228,7 @@
         <v>113</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>167</v>
@@ -38071,7 +38084,7 @@
         <v>101</v>
       </c>
       <c r="C40" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D40" s="62" t="s">
         <v>171</v>
@@ -38109,7 +38122,7 @@
         <v>101</v>
       </c>
       <c r="C41" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D41" s="62" t="s">
         <v>171</v>
@@ -38217,7 +38230,7 @@
         <v>106</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D44" s="53" t="s">
         <v>167</v>
@@ -38251,7 +38264,7 @@
         <v>106</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D45" s="53" t="s">
         <v>167</v>
@@ -38349,7 +38362,7 @@
         <v>113</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D48" s="53" t="s">
         <v>167</v>
@@ -39205,7 +39218,7 @@
         <v>101</v>
       </c>
       <c r="C74" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D74" s="62" t="s">
         <v>171</v>
@@ -39239,7 +39252,7 @@
         <v>101</v>
       </c>
       <c r="C75" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D75" s="62" t="s">
         <v>171</v>
@@ -39337,7 +39350,7 @@
         <v>106</v>
       </c>
       <c r="C78" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D78" s="53" t="s">
         <v>167</v>
@@ -39369,7 +39382,7 @@
         <v>106</v>
       </c>
       <c r="C79" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D79" s="53" t="s">
         <v>167</v>
@@ -39465,7 +39478,7 @@
         <v>113</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D82" s="53" t="s">
         <v>167</v>
@@ -40295,7 +40308,7 @@
         <v>101</v>
       </c>
       <c r="C108" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D108" s="62" t="s">
         <v>171</v>
@@ -40329,7 +40342,7 @@
         <v>101</v>
       </c>
       <c r="C109" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D109" s="62" t="s">
         <v>171</v>
@@ -40427,7 +40440,7 @@
         <v>106</v>
       </c>
       <c r="C112" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D112" s="53" t="s">
         <v>167</v>
@@ -40459,7 +40472,7 @@
         <v>106</v>
       </c>
       <c r="C113" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D113" s="53" t="s">
         <v>167</v>
@@ -40555,7 +40568,7 @@
         <v>113</v>
       </c>
       <c r="C116" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D116" s="53" t="s">
         <v>167</v>
@@ -41262,10 +41275,10 @@
       </c>
       <c r="E138" s="53"/>
       <c r="F138" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G138" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H138" s="48">
         <v>1E-8</v>
@@ -41294,10 +41307,10 @@
         <v>170</v>
       </c>
       <c r="F139" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G139" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H139" s="50">
         <v>1</v>
@@ -41324,10 +41337,10 @@
       </c>
       <c r="E140" s="53"/>
       <c r="F140" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G140" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H140" s="48">
         <v>1E-8</v>
@@ -41354,10 +41367,10 @@
       </c>
       <c r="E141" s="53"/>
       <c r="F141" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G141" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H141" s="49">
         <v>9.9999999999999995E-7</v>
@@ -41377,7 +41390,7 @@
         <v>101</v>
       </c>
       <c r="C142" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D142" s="53" t="s">
         <v>171</v>
@@ -41386,10 +41399,10 @@
         <v>172</v>
       </c>
       <c r="F142" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G142" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H142" s="50">
         <v>1</v>
@@ -41409,7 +41422,7 @@
         <v>101</v>
       </c>
       <c r="C143" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D143" s="53" t="s">
         <v>171</v>
@@ -41418,10 +41431,10 @@
         <v>172</v>
       </c>
       <c r="F143" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G143" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H143" s="50">
         <v>1</v>
@@ -41448,10 +41461,10 @@
       </c>
       <c r="E144" s="53"/>
       <c r="F144" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G144" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H144" s="50">
         <v>1</v>
@@ -41478,10 +41491,10 @@
       </c>
       <c r="E145" s="53"/>
       <c r="F145" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G145" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H145" s="48">
         <v>1E-8</v>
@@ -41501,17 +41514,17 @@
         <v>106</v>
       </c>
       <c r="C146" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D146" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E146" s="53"/>
       <c r="F146" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G146" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H146" s="51">
         <v>1E-4</v>
@@ -41531,17 +41544,17 @@
         <v>106</v>
       </c>
       <c r="C147" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D147" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E147" s="53"/>
       <c r="F147" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G147" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H147" s="51">
         <v>1E-4</v>
@@ -41568,10 +41581,10 @@
       </c>
       <c r="E148" s="53"/>
       <c r="F148" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H148" s="49">
         <v>9.9999999999999995E-7</v>
@@ -41598,10 +41611,10 @@
       </c>
       <c r="E149" s="53"/>
       <c r="F149" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G149" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H149" s="48">
         <v>1E-8</v>
@@ -41621,7 +41634,7 @@
         <v>113</v>
       </c>
       <c r="C150" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D150" s="53" t="s">
         <v>167</v>
@@ -41630,10 +41643,10 @@
         <v>173</v>
       </c>
       <c r="F150" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G150" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H150" s="49">
         <v>9.9999999999999995E-7</v>
@@ -41660,10 +41673,10 @@
       </c>
       <c r="E151" s="53"/>
       <c r="F151" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G151" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H151" s="48">
         <v>1E-8</v>
@@ -41692,10 +41705,10 @@
         <v>174</v>
       </c>
       <c r="F152" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G152" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H152" s="51">
         <v>1E-4</v>
@@ -41722,10 +41735,10 @@
       </c>
       <c r="E153" s="53"/>
       <c r="F153" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G153" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H153" s="48">
         <v>1E-8</v>
@@ -41752,10 +41765,10 @@
       </c>
       <c r="E154" s="53"/>
       <c r="F154" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G154" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H154" s="48">
         <v>1E-8</v>
@@ -41782,10 +41795,10 @@
       </c>
       <c r="E155" s="53"/>
       <c r="F155" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G155" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H155" s="48">
         <v>1E-8</v>
@@ -41812,10 +41825,10 @@
       </c>
       <c r="E156" s="53"/>
       <c r="F156" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G156" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H156" s="48">
         <v>1E-8</v>
@@ -41842,10 +41855,10 @@
       </c>
       <c r="E157" s="53"/>
       <c r="F157" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G157" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H157" s="48">
         <v>1E-8</v>
@@ -41872,10 +41885,10 @@
       </c>
       <c r="E158" s="53"/>
       <c r="F158" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G158" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H158" s="48">
         <v>1E-8</v>
@@ -41902,10 +41915,10 @@
       </c>
       <c r="E159" s="53"/>
       <c r="F159" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G159" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H159" s="48">
         <v>1E-8</v>
@@ -41932,10 +41945,10 @@
       </c>
       <c r="E160" s="53"/>
       <c r="F160" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G160" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H160" s="48">
         <v>1E-8</v>
@@ -41962,10 +41975,10 @@
       </c>
       <c r="E161" s="53"/>
       <c r="F161" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G161" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H161" s="48">
         <v>1E-8</v>
@@ -41992,10 +42005,10 @@
       </c>
       <c r="E162" s="53"/>
       <c r="F162" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G162" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H162" s="48">
         <v>1E-8</v>
@@ -42022,10 +42035,10 @@
       </c>
       <c r="E163" s="53"/>
       <c r="F163" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G163" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H163" s="48">
         <v>1E-8</v>
@@ -42052,10 +42065,10 @@
       </c>
       <c r="E164" s="53"/>
       <c r="F164" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G164" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H164" s="48">
         <v>1E-8</v>
@@ -42080,10 +42093,10 @@
       </c>
       <c r="E165" s="53"/>
       <c r="F165" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G165" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H165" s="48">
         <v>1E-8</v>
@@ -42108,10 +42121,10 @@
       </c>
       <c r="E166" s="56"/>
       <c r="F166" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G166" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H166" s="48">
         <v>1E-8</v>
@@ -42138,10 +42151,10 @@
       </c>
       <c r="E167" s="53"/>
       <c r="F167" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G167" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H167" s="48">
         <v>1E-8</v>
@@ -42168,10 +42181,10 @@
       </c>
       <c r="E168" s="53"/>
       <c r="F168" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G168" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H168" s="51">
         <v>1E-4</v>
@@ -42198,10 +42211,10 @@
         <v>179</v>
       </c>
       <c r="F169" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G169" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H169" s="48">
         <v>1E-8</v>
@@ -42226,10 +42239,10 @@
       </c>
       <c r="E170" s="53"/>
       <c r="F170" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G170" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H170" s="48">
         <v>1E-8</v>
@@ -42254,10 +42267,10 @@
       </c>
       <c r="E171" s="53"/>
       <c r="F171" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G171" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H171" s="48">
         <v>1E-8</v>
@@ -42284,10 +42297,10 @@
       </c>
       <c r="E172" s="53"/>
       <c r="F172" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G172" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H172" s="48">
         <v>1E-10</v>
@@ -42316,10 +42329,10 @@
         <v>170</v>
       </c>
       <c r="F173" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G173" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H173" s="50">
         <v>1</v>
@@ -42346,10 +42359,10 @@
       </c>
       <c r="E174" s="53"/>
       <c r="F174" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G174" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H174" s="48">
         <v>1E-10</v>
@@ -42376,10 +42389,10 @@
       </c>
       <c r="E175" s="53"/>
       <c r="F175" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G175" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H175" s="49">
         <v>1E-8</v>
@@ -42399,7 +42412,7 @@
         <v>101</v>
       </c>
       <c r="C176" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D176" s="53" t="s">
         <v>171</v>
@@ -42408,10 +42421,10 @@
         <v>172</v>
       </c>
       <c r="F176" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G176" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H176" s="50">
         <v>1</v>
@@ -42431,7 +42444,7 @@
         <v>101</v>
       </c>
       <c r="C177" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D177" s="53" t="s">
         <v>171</v>
@@ -42440,10 +42453,10 @@
         <v>172</v>
       </c>
       <c r="F177" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G177" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H177" s="50">
         <v>1</v>
@@ -42470,10 +42483,10 @@
       </c>
       <c r="E178" s="53"/>
       <c r="F178" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G178" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H178" s="50">
         <v>1</v>
@@ -42500,10 +42513,10 @@
       </c>
       <c r="E179" s="53"/>
       <c r="F179" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G179" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H179" s="48">
         <v>1E-10</v>
@@ -42523,17 +42536,17 @@
         <v>106</v>
       </c>
       <c r="C180" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D180" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E180" s="53"/>
       <c r="F180" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G180" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H180" s="51">
         <v>9.9999999999999995E-7</v>
@@ -42553,17 +42566,17 @@
         <v>106</v>
       </c>
       <c r="C181" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D181" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E181" s="53"/>
       <c r="F181" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G181" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H181" s="51">
         <v>9.9999999999999995E-7</v>
@@ -42590,10 +42603,10 @@
       </c>
       <c r="E182" s="53"/>
       <c r="F182" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G182" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H182" s="49">
         <v>1E-8</v>
@@ -42620,10 +42633,10 @@
       </c>
       <c r="E183" s="53"/>
       <c r="F183" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G183" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H183" s="48">
         <v>1E-10</v>
@@ -42643,7 +42656,7 @@
         <v>113</v>
       </c>
       <c r="C184" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D184" s="53" t="s">
         <v>167</v>
@@ -42652,10 +42665,10 @@
         <v>173</v>
       </c>
       <c r="F184" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G184" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H184" s="49">
         <v>1E-8</v>
@@ -42682,10 +42695,10 @@
       </c>
       <c r="E185" s="53"/>
       <c r="F185" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G185" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H185" s="48">
         <v>1E-10</v>
@@ -42714,10 +42727,10 @@
         <v>174</v>
       </c>
       <c r="F186" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G186" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H186" s="51">
         <v>9.9999999999999995E-7</v>
@@ -42744,10 +42757,10 @@
       </c>
       <c r="E187" s="53"/>
       <c r="F187" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G187" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H187" s="48">
         <v>1E-10</v>
@@ -42774,10 +42787,10 @@
       </c>
       <c r="E188" s="53"/>
       <c r="F188" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G188" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H188" s="48">
         <v>1E-10</v>
@@ -42804,10 +42817,10 @@
       </c>
       <c r="E189" s="53"/>
       <c r="F189" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G189" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H189" s="48">
         <v>1E-10</v>
@@ -42834,10 +42847,10 @@
       </c>
       <c r="E190" s="53"/>
       <c r="F190" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G190" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H190" s="48">
         <v>1E-10</v>
@@ -42864,10 +42877,10 @@
       </c>
       <c r="E191" s="53"/>
       <c r="F191" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G191" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H191" s="48">
         <v>1E-10</v>
@@ -42894,10 +42907,10 @@
       </c>
       <c r="E192" s="53"/>
       <c r="F192" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G192" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H192" s="48">
         <v>1E-10</v>
@@ -42924,10 +42937,10 @@
       </c>
       <c r="E193" s="53"/>
       <c r="F193" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G193" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H193" s="48">
         <v>1E-10</v>
@@ -42954,10 +42967,10 @@
       </c>
       <c r="E194" s="53"/>
       <c r="F194" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G194" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H194" s="48">
         <v>1E-10</v>
@@ -42984,10 +42997,10 @@
       </c>
       <c r="E195" s="53"/>
       <c r="F195" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G195" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H195" s="48">
         <v>1E-10</v>
@@ -43014,10 +43027,10 @@
       </c>
       <c r="E196" s="53"/>
       <c r="F196" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G196" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H196" s="48">
         <v>1E-10</v>
@@ -43044,10 +43057,10 @@
       </c>
       <c r="E197" s="53"/>
       <c r="F197" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G197" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H197" s="48">
         <v>1E-10</v>
@@ -43074,10 +43087,10 @@
       </c>
       <c r="E198" s="53"/>
       <c r="F198" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G198" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H198" s="48">
         <v>1E-10</v>
@@ -43102,10 +43115,10 @@
       </c>
       <c r="E199" s="53"/>
       <c r="F199" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G199" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H199" s="48">
         <v>1E-10</v>
@@ -43130,10 +43143,10 @@
       </c>
       <c r="E200" s="56"/>
       <c r="F200" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G200" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H200" s="48">
         <v>1E-10</v>
@@ -43160,10 +43173,10 @@
       </c>
       <c r="E201" s="53"/>
       <c r="F201" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G201" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H201" s="48">
         <v>1E-10</v>
@@ -43190,10 +43203,10 @@
       </c>
       <c r="E202" s="53"/>
       <c r="F202" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G202" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H202" s="51">
         <v>9.9999999999999995E-7</v>
@@ -43220,10 +43233,10 @@
         <v>179</v>
       </c>
       <c r="F203" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G203" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H203" s="48">
         <v>1E-10</v>
@@ -43248,10 +43261,10 @@
       </c>
       <c r="E204" s="53"/>
       <c r="F204" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G204" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H204" s="48">
         <v>1E-10</v>
@@ -43276,10 +43289,10 @@
       </c>
       <c r="E205" s="53"/>
       <c r="F205" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G205" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H205" s="48">
         <v>1E-10</v>
@@ -43306,10 +43319,10 @@
       </c>
       <c r="E206" s="53"/>
       <c r="F206" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G206" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H206" s="48">
         <v>9.9999999999999998E-13</v>
@@ -43338,10 +43351,10 @@
         <v>170</v>
       </c>
       <c r="F207" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G207" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H207" s="45">
         <v>1E-3</v>
@@ -43368,10 +43381,10 @@
       </c>
       <c r="E208" s="53"/>
       <c r="F208" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G208" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H208" s="48">
         <v>9.9999999999999998E-13</v>
@@ -43398,10 +43411,10 @@
       </c>
       <c r="E209" s="53"/>
       <c r="F209" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G209" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H209" s="49">
         <v>1E-10</v>
@@ -43421,7 +43434,7 @@
         <v>101</v>
       </c>
       <c r="C210" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D210" s="53" t="s">
         <v>171</v>
@@ -43430,10 +43443,10 @@
         <v>172</v>
       </c>
       <c r="F210" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G210" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H210" s="45">
         <v>1E-3</v>
@@ -43453,7 +43466,7 @@
         <v>101</v>
       </c>
       <c r="C211" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D211" s="53" t="s">
         <v>171</v>
@@ -43462,10 +43475,10 @@
         <v>172</v>
       </c>
       <c r="F211" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G211" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H211" s="45">
         <v>1E-3</v>
@@ -43492,10 +43505,10 @@
       </c>
       <c r="E212" s="53"/>
       <c r="F212" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G212" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H212" s="45">
         <v>1E-3</v>
@@ -43522,10 +43535,10 @@
       </c>
       <c r="E213" s="53"/>
       <c r="F213" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G213" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H213" s="48">
         <v>9.9999999999999998E-13</v>
@@ -43545,17 +43558,17 @@
         <v>106</v>
       </c>
       <c r="C214" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D214" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E214" s="53"/>
       <c r="F214" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G214" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H214" s="51">
         <v>1E-8</v>
@@ -43575,17 +43588,17 @@
         <v>106</v>
       </c>
       <c r="C215" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D215" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E215" s="53"/>
       <c r="F215" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G215" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H215" s="51">
         <v>1E-8</v>
@@ -43612,10 +43625,10 @@
       </c>
       <c r="E216" s="53"/>
       <c r="F216" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G216" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H216" s="49">
         <v>1E-10</v>
@@ -43642,10 +43655,10 @@
       </c>
       <c r="E217" s="53"/>
       <c r="F217" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G217" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H217" s="48">
         <v>9.9999999999999998E-13</v>
@@ -43665,7 +43678,7 @@
         <v>113</v>
       </c>
       <c r="C218" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D218" s="53" t="s">
         <v>167</v>
@@ -43674,10 +43687,10 @@
         <v>173</v>
       </c>
       <c r="F218" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G218" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H218" s="49">
         <v>1E-10</v>
@@ -43704,10 +43717,10 @@
       </c>
       <c r="E219" s="53"/>
       <c r="F219" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G219" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H219" s="48">
         <v>9.9999999999999998E-13</v>
@@ -43736,10 +43749,10 @@
         <v>174</v>
       </c>
       <c r="F220" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G220" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H220" s="51">
         <v>1E-8</v>
@@ -43766,10 +43779,10 @@
       </c>
       <c r="E221" s="53"/>
       <c r="F221" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G221" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H221" s="48">
         <v>9.9999999999999998E-13</v>
@@ -43796,10 +43809,10 @@
       </c>
       <c r="E222" s="53"/>
       <c r="F222" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G222" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H222" s="48">
         <v>9.9999999999999998E-13</v>
@@ -43826,10 +43839,10 @@
       </c>
       <c r="E223" s="53"/>
       <c r="F223" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G223" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H223" s="48">
         <v>9.9999999999999998E-13</v>
@@ -43856,10 +43869,10 @@
       </c>
       <c r="E224" s="53"/>
       <c r="F224" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G224" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H224" s="48">
         <v>9.9999999999999998E-13</v>
@@ -43886,10 +43899,10 @@
       </c>
       <c r="E225" s="53"/>
       <c r="F225" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G225" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H225" s="48">
         <v>9.9999999999999998E-13</v>
@@ -43916,10 +43929,10 @@
       </c>
       <c r="E226" s="53"/>
       <c r="F226" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G226" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H226" s="48">
         <v>9.9999999999999998E-13</v>
@@ -43946,10 +43959,10 @@
       </c>
       <c r="E227" s="53"/>
       <c r="F227" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G227" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H227" s="48">
         <v>9.9999999999999998E-13</v>
@@ -43976,10 +43989,10 @@
       </c>
       <c r="E228" s="53"/>
       <c r="F228" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G228" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H228" s="48">
         <v>9.9999999999999998E-13</v>
@@ -44006,10 +44019,10 @@
       </c>
       <c r="E229" s="53"/>
       <c r="F229" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G229" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H229" s="48">
         <v>9.9999999999999998E-13</v>
@@ -44036,10 +44049,10 @@
       </c>
       <c r="E230" s="53"/>
       <c r="F230" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G230" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H230" s="48">
         <v>9.9999999999999998E-13</v>
@@ -44066,10 +44079,10 @@
       </c>
       <c r="E231" s="53"/>
       <c r="F231" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G231" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H231" s="48">
         <v>9.9999999999999998E-13</v>
@@ -44096,10 +44109,10 @@
       </c>
       <c r="E232" s="53"/>
       <c r="F232" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G232" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H232" s="48">
         <v>9.9999999999999998E-13</v>
@@ -44124,10 +44137,10 @@
       </c>
       <c r="E233" s="53"/>
       <c r="F233" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G233" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H233" s="48">
         <v>9.9999999999999998E-13</v>
@@ -44152,10 +44165,10 @@
       </c>
       <c r="E234" s="56"/>
       <c r="F234" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G234" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H234" s="48">
         <v>9.9999999999999998E-13</v>
@@ -44182,10 +44195,10 @@
       </c>
       <c r="E235" s="53"/>
       <c r="F235" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G235" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H235" s="48">
         <v>9.9999999999999998E-13</v>
@@ -44212,10 +44225,10 @@
       </c>
       <c r="E236" s="53"/>
       <c r="F236" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G236" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H236" s="51">
         <v>1E-8</v>
@@ -44242,10 +44255,10 @@
         <v>179</v>
       </c>
       <c r="F237" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G237" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H237" s="48">
         <v>9.9999999999999998E-13</v>
@@ -44270,10 +44283,10 @@
       </c>
       <c r="E238" s="53"/>
       <c r="F238" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G238" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H238" s="48">
         <v>9.9999999999999998E-13</v>
@@ -44298,10 +44311,10 @@
       </c>
       <c r="E239" s="53"/>
       <c r="F239" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G239" s="54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H239" s="48">
         <v>9.9999999999999998E-13</v>
@@ -44328,10 +44341,10 @@
       </c>
       <c r="E240" s="53"/>
       <c r="F240" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G240" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H240" s="48">
         <v>1.0000000000000001E-5</v>
@@ -44360,10 +44373,10 @@
         <v>170</v>
       </c>
       <c r="F241" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G241" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H241" s="50">
         <v>1</v>
@@ -44390,10 +44403,10 @@
       </c>
       <c r="E242" s="53"/>
       <c r="F242" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G242" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H242" s="48">
         <v>1.0000000000000001E-5</v>
@@ -44420,10 +44433,10 @@
       </c>
       <c r="E243" s="53"/>
       <c r="F243" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G243" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H243" s="49">
         <v>1E-3</v>
@@ -44443,7 +44456,7 @@
         <v>101</v>
       </c>
       <c r="C244" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D244" s="53" t="s">
         <v>171</v>
@@ -44452,10 +44465,10 @@
         <v>172</v>
       </c>
       <c r="F244" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G244" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H244" s="50">
         <v>1</v>
@@ -44475,7 +44488,7 @@
         <v>101</v>
       </c>
       <c r="C245" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D245" s="53" t="s">
         <v>171</v>
@@ -44484,10 +44497,10 @@
         <v>172</v>
       </c>
       <c r="F245" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G245" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H245" s="50">
         <v>1</v>
@@ -44514,10 +44527,10 @@
       </c>
       <c r="E246" s="53"/>
       <c r="F246" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G246" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H246" s="50">
         <v>1</v>
@@ -44544,10 +44557,10 @@
       </c>
       <c r="E247" s="53"/>
       <c r="F247" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G247" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H247" s="48">
         <v>1.0000000000000001E-5</v>
@@ -44567,17 +44580,17 @@
         <v>106</v>
       </c>
       <c r="C248" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D248" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E248" s="53"/>
       <c r="F248" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G248" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H248" s="51">
         <v>0.1</v>
@@ -44597,17 +44610,17 @@
         <v>106</v>
       </c>
       <c r="C249" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D249" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E249" s="53"/>
       <c r="F249" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G249" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H249" s="51">
         <v>0.1</v>
@@ -44634,10 +44647,10 @@
       </c>
       <c r="E250" s="53"/>
       <c r="F250" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G250" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H250" s="49">
         <v>1E-3</v>
@@ -44664,10 +44677,10 @@
       </c>
       <c r="E251" s="53"/>
       <c r="F251" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G251" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H251" s="48">
         <v>1.0000000000000001E-5</v>
@@ -44687,7 +44700,7 @@
         <v>113</v>
       </c>
       <c r="C252" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D252" s="53" t="s">
         <v>167</v>
@@ -44696,10 +44709,10 @@
         <v>173</v>
       </c>
       <c r="F252" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G252" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H252" s="49">
         <v>1E-3</v>
@@ -44726,10 +44739,10 @@
       </c>
       <c r="E253" s="53"/>
       <c r="F253" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G253" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H253" s="48">
         <v>1.0000000000000001E-5</v>
@@ -44758,10 +44771,10 @@
         <v>174</v>
       </c>
       <c r="F254" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G254" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H254" s="51">
         <v>0.1</v>
@@ -44788,10 +44801,10 @@
       </c>
       <c r="E255" s="53"/>
       <c r="F255" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G255" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H255" s="48">
         <v>1.0000000000000001E-5</v>
@@ -44818,10 +44831,10 @@
       </c>
       <c r="E256" s="53"/>
       <c r="F256" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G256" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H256" s="48">
         <v>1.0000000000000001E-5</v>
@@ -44848,10 +44861,10 @@
       </c>
       <c r="E257" s="53"/>
       <c r="F257" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G257" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H257" s="48">
         <v>1.0000000000000001E-5</v>
@@ -44878,10 +44891,10 @@
       </c>
       <c r="E258" s="53"/>
       <c r="F258" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G258" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H258" s="48">
         <v>1.0000000000000001E-5</v>
@@ -44908,10 +44921,10 @@
       </c>
       <c r="E259" s="53"/>
       <c r="F259" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G259" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H259" s="48">
         <v>1.0000000000000001E-5</v>
@@ -44938,10 +44951,10 @@
       </c>
       <c r="E260" s="53"/>
       <c r="F260" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G260" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H260" s="48">
         <v>1.0000000000000001E-5</v>
@@ -44968,10 +44981,10 @@
       </c>
       <c r="E261" s="53"/>
       <c r="F261" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G261" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H261" s="48">
         <v>1.0000000000000001E-5</v>
@@ -44998,10 +45011,10 @@
       </c>
       <c r="E262" s="53"/>
       <c r="F262" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G262" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H262" s="48">
         <v>1.0000000000000001E-5</v>
@@ -45028,10 +45041,10 @@
       </c>
       <c r="E263" s="53"/>
       <c r="F263" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G263" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H263" s="48">
         <v>1.0000000000000001E-5</v>
@@ -45058,10 +45071,10 @@
       </c>
       <c r="E264" s="53"/>
       <c r="F264" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G264" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H264" s="48">
         <v>1.0000000000000001E-5</v>
@@ -45088,10 +45101,10 @@
       </c>
       <c r="E265" s="53"/>
       <c r="F265" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G265" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H265" s="48">
         <v>1.0000000000000001E-5</v>
@@ -45118,10 +45131,10 @@
       </c>
       <c r="E266" s="53"/>
       <c r="F266" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G266" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H266" s="48">
         <v>1.0000000000000001E-5</v>
@@ -45146,10 +45159,10 @@
       </c>
       <c r="E267" s="53"/>
       <c r="F267" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G267" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H267" s="48">
         <v>1.0000000000000001E-5</v>
@@ -45174,10 +45187,10 @@
       </c>
       <c r="E268" s="56"/>
       <c r="F268" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G268" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H268" s="48">
         <v>1.0000000000000001E-5</v>
@@ -45204,10 +45217,10 @@
       </c>
       <c r="E269" s="53"/>
       <c r="F269" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G269" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H269" s="48">
         <v>1.0000000000000001E-5</v>
@@ -45234,10 +45247,10 @@
       </c>
       <c r="E270" s="53"/>
       <c r="F270" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G270" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H270" s="51">
         <v>0.1</v>
@@ -45264,10 +45277,10 @@
         <v>179</v>
       </c>
       <c r="F271" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G271" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H271" s="48">
         <v>1.0000000000000001E-5</v>
@@ -45292,10 +45305,10 @@
       </c>
       <c r="E272" s="53"/>
       <c r="F272" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G272" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H272" s="48">
         <v>1.0000000000000001E-5</v>
@@ -45320,10 +45333,10 @@
       </c>
       <c r="E273" s="53"/>
       <c r="F273" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G273" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H273" s="48">
         <v>1.0000000000000001E-5</v>
@@ -45350,10 +45363,10 @@
       </c>
       <c r="E274" s="53"/>
       <c r="F274" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G274" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H274" s="48">
         <v>9.9999999999999995E-8</v>
@@ -45382,10 +45395,10 @@
         <v>170</v>
       </c>
       <c r="F275" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G275" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H275" s="50">
         <v>1</v>
@@ -45412,10 +45425,10 @@
       </c>
       <c r="E276" s="53"/>
       <c r="F276" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G276" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H276" s="48">
         <v>9.9999999999999995E-8</v>
@@ -45442,10 +45455,10 @@
       </c>
       <c r="E277" s="53"/>
       <c r="F277" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G277" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H277" s="49">
         <v>1.0000000000000001E-5</v>
@@ -45465,7 +45478,7 @@
         <v>101</v>
       </c>
       <c r="C278" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D278" s="53" t="s">
         <v>171</v>
@@ -45474,10 +45487,10 @@
         <v>172</v>
       </c>
       <c r="F278" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G278" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H278" s="50">
         <v>1</v>
@@ -45497,7 +45510,7 @@
         <v>101</v>
       </c>
       <c r="C279" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D279" s="53" t="s">
         <v>171</v>
@@ -45506,10 +45519,10 @@
         <v>172</v>
       </c>
       <c r="F279" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G279" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H279" s="50">
         <v>1</v>
@@ -45536,10 +45549,10 @@
       </c>
       <c r="E280" s="53"/>
       <c r="F280" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G280" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H280" s="50">
         <v>1</v>
@@ -45566,10 +45579,10 @@
       </c>
       <c r="E281" s="53"/>
       <c r="F281" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G281" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H281" s="48">
         <v>9.9999999999999995E-8</v>
@@ -45589,17 +45602,17 @@
         <v>106</v>
       </c>
       <c r="C282" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D282" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E282" s="53"/>
       <c r="F282" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G282" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H282" s="51">
         <v>1E-3</v>
@@ -45619,17 +45632,17 @@
         <v>106</v>
       </c>
       <c r="C283" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D283" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E283" s="53"/>
       <c r="F283" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G283" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H283" s="51">
         <v>1E-3</v>
@@ -45656,10 +45669,10 @@
       </c>
       <c r="E284" s="53"/>
       <c r="F284" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G284" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H284" s="49">
         <v>1.0000000000000001E-5</v>
@@ -45686,10 +45699,10 @@
       </c>
       <c r="E285" s="53"/>
       <c r="F285" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G285" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H285" s="48">
         <v>9.9999999999999995E-8</v>
@@ -45709,7 +45722,7 @@
         <v>113</v>
       </c>
       <c r="C286" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D286" s="53" t="s">
         <v>167</v>
@@ -45718,10 +45731,10 @@
         <v>173</v>
       </c>
       <c r="F286" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G286" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H286" s="49">
         <v>1.0000000000000001E-5</v>
@@ -45748,10 +45761,10 @@
       </c>
       <c r="E287" s="53"/>
       <c r="F287" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G287" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H287" s="48">
         <v>9.9999999999999995E-8</v>
@@ -45780,10 +45793,10 @@
         <v>174</v>
       </c>
       <c r="F288" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G288" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H288" s="51">
         <v>1E-3</v>
@@ -45810,10 +45823,10 @@
       </c>
       <c r="E289" s="53"/>
       <c r="F289" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G289" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H289" s="48">
         <v>9.9999999999999995E-8</v>
@@ -45840,10 +45853,10 @@
       </c>
       <c r="E290" s="53"/>
       <c r="F290" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G290" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H290" s="48">
         <v>9.9999999999999995E-8</v>
@@ -45870,10 +45883,10 @@
       </c>
       <c r="E291" s="53"/>
       <c r="F291" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G291" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H291" s="48">
         <v>9.9999999999999995E-8</v>
@@ -45900,10 +45913,10 @@
       </c>
       <c r="E292" s="53"/>
       <c r="F292" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G292" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H292" s="48">
         <v>9.9999999999999995E-8</v>
@@ -45930,10 +45943,10 @@
       </c>
       <c r="E293" s="53"/>
       <c r="F293" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G293" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H293" s="48">
         <v>9.9999999999999995E-8</v>
@@ -45960,10 +45973,10 @@
       </c>
       <c r="E294" s="53"/>
       <c r="F294" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G294" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H294" s="48">
         <v>9.9999999999999995E-8</v>
@@ -45990,10 +46003,10 @@
       </c>
       <c r="E295" s="53"/>
       <c r="F295" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G295" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H295" s="48">
         <v>9.9999999999999995E-8</v>
@@ -46020,10 +46033,10 @@
       </c>
       <c r="E296" s="53"/>
       <c r="F296" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G296" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H296" s="48">
         <v>9.9999999999999995E-8</v>
@@ -46050,10 +46063,10 @@
       </c>
       <c r="E297" s="53"/>
       <c r="F297" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G297" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H297" s="48">
         <v>9.9999999999999995E-8</v>
@@ -46080,10 +46093,10 @@
       </c>
       <c r="E298" s="53"/>
       <c r="F298" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G298" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H298" s="48">
         <v>9.9999999999999995E-8</v>
@@ -46110,10 +46123,10 @@
       </c>
       <c r="E299" s="53"/>
       <c r="F299" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G299" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H299" s="48">
         <v>9.9999999999999995E-8</v>
@@ -46140,10 +46153,10 @@
       </c>
       <c r="E300" s="53"/>
       <c r="F300" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G300" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H300" s="48">
         <v>9.9999999999999995E-8</v>
@@ -46168,10 +46181,10 @@
       </c>
       <c r="E301" s="53"/>
       <c r="F301" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G301" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H301" s="48">
         <v>9.9999999999999995E-8</v>
@@ -46196,10 +46209,10 @@
       </c>
       <c r="E302" s="56"/>
       <c r="F302" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G302" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H302" s="48">
         <v>9.9999999999999995E-8</v>
@@ -46226,10 +46239,10 @@
       </c>
       <c r="E303" s="53"/>
       <c r="F303" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G303" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H303" s="48">
         <v>9.9999999999999995E-8</v>
@@ -46256,10 +46269,10 @@
       </c>
       <c r="E304" s="53"/>
       <c r="F304" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G304" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H304" s="51">
         <v>1E-3</v>
@@ -46286,10 +46299,10 @@
         <v>179</v>
       </c>
       <c r="F305" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G305" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H305" s="48">
         <v>9.9999999999999995E-8</v>
@@ -46314,10 +46327,10 @@
       </c>
       <c r="E306" s="53"/>
       <c r="F306" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G306" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H306" s="48">
         <v>9.9999999999999995E-8</v>
@@ -46342,10 +46355,10 @@
       </c>
       <c r="E307" s="53"/>
       <c r="F307" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G307" s="54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H307" s="48">
         <v>9.9999999999999995E-8</v>
@@ -46372,10 +46385,10 @@
       </c>
       <c r="E308" s="53"/>
       <c r="F308" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G308" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H308" s="48">
         <v>1.0000000000000001E-9</v>
@@ -46404,10 +46417,10 @@
         <v>170</v>
       </c>
       <c r="F309" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G309" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H309" s="50">
         <v>1</v>
@@ -46434,10 +46447,10 @@
       </c>
       <c r="E310" s="53"/>
       <c r="F310" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G310" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H310" s="48">
         <v>1.0000000000000001E-9</v>
@@ -46464,10 +46477,10 @@
       </c>
       <c r="E311" s="53"/>
       <c r="F311" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G311" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H311" s="49">
         <v>9.9999999999999995E-8</v>
@@ -46487,7 +46500,7 @@
         <v>101</v>
       </c>
       <c r="C312" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D312" s="53" t="s">
         <v>171</v>
@@ -46496,10 +46509,10 @@
         <v>172</v>
       </c>
       <c r="F312" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G312" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H312" s="50">
         <v>1</v>
@@ -46519,7 +46532,7 @@
         <v>101</v>
       </c>
       <c r="C313" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D313" s="53" t="s">
         <v>171</v>
@@ -46528,10 +46541,10 @@
         <v>172</v>
       </c>
       <c r="F313" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G313" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H313" s="50">
         <v>1</v>
@@ -46558,10 +46571,10 @@
       </c>
       <c r="E314" s="53"/>
       <c r="F314" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G314" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H314" s="50">
         <v>1</v>
@@ -46588,10 +46601,10 @@
       </c>
       <c r="E315" s="53"/>
       <c r="F315" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G315" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H315" s="48">
         <v>1.0000000000000001E-9</v>
@@ -46611,17 +46624,17 @@
         <v>106</v>
       </c>
       <c r="C316" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D316" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E316" s="53"/>
       <c r="F316" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G316" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H316" s="51">
         <v>1.0000000000000001E-5</v>
@@ -46641,17 +46654,17 @@
         <v>106</v>
       </c>
       <c r="C317" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D317" s="53" t="s">
         <v>167</v>
       </c>
       <c r="E317" s="53"/>
       <c r="F317" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G317" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H317" s="51">
         <v>1.0000000000000001E-5</v>
@@ -46678,10 +46691,10 @@
       </c>
       <c r="E318" s="53"/>
       <c r="F318" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G318" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H318" s="49">
         <v>9.9999999999999995E-8</v>
@@ -46708,10 +46721,10 @@
       </c>
       <c r="E319" s="53"/>
       <c r="F319" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G319" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H319" s="48">
         <v>1.0000000000000001E-9</v>
@@ -46731,7 +46744,7 @@
         <v>113</v>
       </c>
       <c r="C320" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D320" s="53" t="s">
         <v>167</v>
@@ -46740,10 +46753,10 @@
         <v>173</v>
       </c>
       <c r="F320" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G320" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H320" s="49">
         <v>9.9999999999999995E-8</v>
@@ -46770,10 +46783,10 @@
       </c>
       <c r="E321" s="53"/>
       <c r="F321" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G321" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H321" s="48">
         <v>1.0000000000000001E-9</v>
@@ -46802,10 +46815,10 @@
         <v>174</v>
       </c>
       <c r="F322" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G322" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H322" s="51">
         <v>1.0000000000000001E-5</v>
@@ -46832,10 +46845,10 @@
       </c>
       <c r="E323" s="53"/>
       <c r="F323" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G323" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H323" s="48">
         <v>1.0000000000000001E-9</v>
@@ -46862,10 +46875,10 @@
       </c>
       <c r="E324" s="53"/>
       <c r="F324" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G324" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H324" s="48">
         <v>1.0000000000000001E-9</v>
@@ -46892,10 +46905,10 @@
       </c>
       <c r="E325" s="53"/>
       <c r="F325" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G325" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H325" s="48">
         <v>1.0000000000000001E-9</v>
@@ -46922,10 +46935,10 @@
       </c>
       <c r="E326" s="53"/>
       <c r="F326" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G326" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H326" s="48">
         <v>1.0000000000000001E-9</v>
@@ -46952,10 +46965,10 @@
       </c>
       <c r="E327" s="53"/>
       <c r="F327" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G327" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H327" s="48">
         <v>1.0000000000000001E-9</v>
@@ -46982,10 +46995,10 @@
       </c>
       <c r="E328" s="53"/>
       <c r="F328" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G328" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H328" s="48">
         <v>1.0000000000000001E-9</v>
@@ -47012,10 +47025,10 @@
       </c>
       <c r="E329" s="53"/>
       <c r="F329" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G329" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H329" s="48">
         <v>1.0000000000000001E-9</v>
@@ -47042,10 +47055,10 @@
       </c>
       <c r="E330" s="53"/>
       <c r="F330" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G330" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H330" s="48">
         <v>1.0000000000000001E-9</v>
@@ -47072,10 +47085,10 @@
       </c>
       <c r="E331" s="53"/>
       <c r="F331" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G331" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H331" s="48">
         <v>1.0000000000000001E-9</v>
@@ -47102,10 +47115,10 @@
       </c>
       <c r="E332" s="53"/>
       <c r="F332" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G332" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H332" s="48">
         <v>1.0000000000000001E-9</v>
@@ -47132,10 +47145,10 @@
       </c>
       <c r="E333" s="53"/>
       <c r="F333" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G333" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H333" s="48">
         <v>1.0000000000000001E-9</v>
@@ -47162,10 +47175,10 @@
       </c>
       <c r="E334" s="53"/>
       <c r="F334" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G334" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H334" s="48">
         <v>1.0000000000000001E-9</v>
@@ -47190,10 +47203,10 @@
       </c>
       <c r="E335" s="53"/>
       <c r="F335" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G335" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H335" s="48">
         <v>1.0000000000000001E-9</v>
@@ -47218,10 +47231,10 @@
       </c>
       <c r="E336" s="56"/>
       <c r="F336" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G336" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H336" s="48">
         <v>1.0000000000000001E-9</v>
@@ -47248,10 +47261,10 @@
       </c>
       <c r="E337" s="53"/>
       <c r="F337" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G337" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H337" s="48">
         <v>1.0000000000000001E-9</v>
@@ -47278,10 +47291,10 @@
       </c>
       <c r="E338" s="53"/>
       <c r="F338" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G338" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H338" s="51">
         <v>1.0000000000000001E-5</v>
@@ -47308,10 +47321,10 @@
         <v>179</v>
       </c>
       <c r="F339" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G339" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H339" s="48">
         <v>1.0000000000000001E-9</v>
@@ -47336,10 +47349,10 @@
       </c>
       <c r="E340" s="53"/>
       <c r="F340" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G340" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H340" s="48">
         <v>1.0000000000000001E-9</v>
@@ -47364,10 +47377,10 @@
       </c>
       <c r="E341" s="53"/>
       <c r="F341" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G341" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H341" s="48">
         <v>1.0000000000000001E-9</v>
@@ -47593,7 +47606,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D6" s="19">
         <v>0</v>
@@ -47629,7 +47642,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D7" s="19">
         <v>0</v>
@@ -48597,16 +48610,16 @@
         <v>190</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>262</v>
       </c>
       <c r="G1" s="89" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>263</v>
@@ -48618,10 +48631,10 @@
         <v>264</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M1" s="88" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>266</v>
@@ -48636,7 +48649,7 @@
         <v>268</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.35">
@@ -48692,7 +48705,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="R2" s="72" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.35">
@@ -48748,7 +48761,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="R3" s="72" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -48817,7 +48830,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D6" s="66" t="s">
         <v>192</v>
@@ -48862,7 +48875,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="R6" s="66" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.35">
@@ -48873,7 +48886,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D7" s="66" t="s">
         <v>192</v>
@@ -48918,7 +48931,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="R7" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.35">
@@ -48974,7 +48987,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="R8" s="80" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -49117,7 +49130,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
@@ -49260,7 +49273,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="R16" s="80" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="80" customFormat="1" x14ac:dyDescent="0.35">
@@ -49316,7 +49329,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="R17" s="80" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -49843,7 +49856,7 @@
         <v>276</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -49881,7 +49894,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -49919,7 +49932,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -49957,7 +49970,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -49995,7 +50008,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -50006,7 +50019,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D6" t="s">
         <v>192</v>
@@ -50033,7 +50046,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -50044,7 +50057,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D7" t="s">
         <v>192</v>
@@ -50071,7 +50084,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -50109,7 +50122,7 @@
         <v>0.97</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -50147,7 +50160,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -50158,7 +50171,7 @@
         <v>106</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D10" t="s">
         <v>194</v>
@@ -50185,7 +50198,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -50196,7 +50209,7 @@
         <v>106</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D11" t="s">
         <v>194</v>
@@ -50223,7 +50236,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -50261,7 +50274,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -50299,7 +50312,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -50310,7 +50323,7 @@
         <v>113</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D14" t="s">
         <v>193</v>
@@ -50337,7 +50350,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -50375,7 +50388,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -50413,7 +50426,7 @@
         <v>0.99</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -50451,7 +50464,7 @@
         <v>0.998</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -50489,7 +50502,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -50514,7 +50527,7 @@
       <c r="I19"/>
       <c r="J19"/>
       <c r="L19" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -50539,7 +50552,7 @@
       <c r="I20"/>
       <c r="J20"/>
       <c r="L20" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -50564,7 +50577,7 @@
       <c r="I21"/>
       <c r="J21"/>
       <c r="L21" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -50589,7 +50602,7 @@
       <c r="I22"/>
       <c r="J22"/>
       <c r="L22" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -50614,7 +50627,7 @@
       <c r="I23"/>
       <c r="J23"/>
       <c r="L23" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -50639,7 +50652,7 @@
       <c r="I24"/>
       <c r="J24"/>
       <c r="L24" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -50664,7 +50677,7 @@
       <c r="I25"/>
       <c r="J25"/>
       <c r="L25" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -50689,7 +50702,7 @@
       <c r="I26"/>
       <c r="J26"/>
       <c r="L26" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -50714,7 +50727,7 @@
       <c r="I27"/>
       <c r="J27"/>
       <c r="L27" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -50739,7 +50752,7 @@
       <c r="I28"/>
       <c r="J28"/>
       <c r="L28" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -50761,7 +50774,7 @@
       <c r="I29"/>
       <c r="J29"/>
       <c r="L29" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -50783,7 +50796,7 @@
       <c r="I30"/>
       <c r="J30"/>
       <c r="L30" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -50808,7 +50821,7 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="L31" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -50833,7 +50846,7 @@
       <c r="I32"/>
       <c r="J32"/>
       <c r="L32" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -50855,7 +50868,7 @@
       <c r="I33"/>
       <c r="J33"/>
       <c r="L33" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -50877,7 +50890,7 @@
       <c r="I34"/>
       <c r="J34"/>
       <c r="L34" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -50899,7 +50912,7 @@
       <c r="I35"/>
       <c r="J35"/>
       <c r="L35" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -51104,7 +51117,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>202</v>
@@ -51119,7 +51132,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -51130,7 +51143,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>202</v>
@@ -51145,7 +51158,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -51843,10 +51856,10 @@
         <v>248</v>
       </c>
       <c r="J1" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>334</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
@@ -52005,7 +52018,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D6" t="s">
         <v>64</v>
@@ -52042,7 +52055,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
@@ -53248,7 +53261,7 @@
         <v>101</v>
       </c>
       <c r="C40" s="71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D40" t="s">
         <v>67</v>
@@ -53285,7 +53298,7 @@
         <v>101</v>
       </c>
       <c r="C41" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D41" t="s">
         <v>67</v>
@@ -54491,7 +54504,7 @@
         <v>101</v>
       </c>
       <c r="C74" s="71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -54528,7 +54541,7 @@
         <v>101</v>
       </c>
       <c r="C75" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -55734,7 +55747,7 @@
         <v>101</v>
       </c>
       <c r="C108" s="71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -55771,7 +55784,7 @@
         <v>101</v>
       </c>
       <c r="C109" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -56977,7 +56990,7 @@
         <v>101</v>
       </c>
       <c r="C142" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
@@ -57014,7 +57027,7 @@
         <v>101</v>
       </c>
       <c r="C143" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
@@ -58220,7 +58233,7 @@
         <v>101</v>
       </c>
       <c r="C176" s="71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D176" t="s">
         <v>12</v>
@@ -58257,7 +58270,7 @@
         <v>101</v>
       </c>
       <c r="C177" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D177" t="s">
         <v>12</v>
@@ -59463,7 +59476,7 @@
         <v>101</v>
       </c>
       <c r="C210" s="71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D210" t="s">
         <v>12</v>
@@ -59500,7 +59513,7 @@
         <v>101</v>
       </c>
       <c r="C211" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D211" t="s">
         <v>12</v>
@@ -60706,7 +60719,7 @@
         <v>101</v>
       </c>
       <c r="C244" s="71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D244" t="s">
         <v>16</v>
@@ -60743,7 +60756,7 @@
         <v>101</v>
       </c>
       <c r="C245" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D245" t="s">
         <v>16</v>
@@ -61949,7 +61962,7 @@
         <v>101</v>
       </c>
       <c r="C278" s="71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D278" t="s">
         <v>16</v>
@@ -61986,7 +61999,7 @@
         <v>101</v>
       </c>
       <c r="C279" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D279" t="s">
         <v>16</v>
@@ -63192,7 +63205,7 @@
         <v>101</v>
       </c>
       <c r="C312" s="71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D312" t="s">
         <v>16</v>
@@ -63229,7 +63242,7 @@
         <v>101</v>
       </c>
       <c r="C313" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D313" t="s">
         <v>16</v>
@@ -64435,7 +64448,7 @@
         <v>101</v>
       </c>
       <c r="C346" s="71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D346" t="s">
         <v>16</v>
@@ -64472,7 +64485,7 @@
         <v>101</v>
       </c>
       <c r="C347" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D347" t="s">
         <v>16</v>
@@ -65678,7 +65691,7 @@
         <v>101</v>
       </c>
       <c r="C380" s="71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D380" t="s">
         <v>16</v>
@@ -65715,7 +65728,7 @@
         <v>101</v>
       </c>
       <c r="C381" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D381" t="s">
         <v>16</v>
@@ -66921,7 +66934,7 @@
         <v>101</v>
       </c>
       <c r="C414" s="71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D414" t="s">
         <v>16</v>
@@ -66958,7 +66971,7 @@
         <v>101</v>
       </c>
       <c r="C415" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D415" t="s">
         <v>16</v>
@@ -68164,7 +68177,7 @@
         <v>101</v>
       </c>
       <c r="C448" s="71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D448" t="s">
         <v>16</v>
@@ -68201,7 +68214,7 @@
         <v>101</v>
       </c>
       <c r="C449" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D449" t="s">
         <v>16</v>
@@ -69306,7 +69319,7 @@
         <v>208</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -69326,7 +69339,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G2" s="22">
         <f t="shared" ref="G2:G34" si="0">D2/E2</f>
@@ -69413,7 +69426,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D6" s="19">
         <v>1036</v>
@@ -69437,7 +69450,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D7" s="19">
         <v>1036</v>
@@ -69973,7 +69986,7 @@
         <v>301000</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G29" s="22">
         <f t="shared" si="0"/>
@@ -70041,7 +70054,7 @@
         <v>301000</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G32" s="22">
         <f t="shared" si="0"/>
@@ -70065,7 +70078,7 @@
         <v>53</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G33" s="22">
         <f t="shared" si="0"/>
@@ -70087,7 +70100,7 @@
         <v>301000</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G34" s="22">
         <f t="shared" si="0"/>
@@ -70109,7 +70122,7 @@
         <v>20</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G35" s="22">
         <f>D35/E35</f>
